--- a/Planilha Custos e Prazos.xlsx
+++ b/Planilha Custos e Prazos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo Mão de Obra" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Nome</t>
   </si>
@@ -124,30 +124,9 @@
     <t>10% sobre mão de obra</t>
   </si>
   <si>
-    <t>Maquinas para trabalho</t>
-  </si>
-  <si>
-    <t>Equipamentos</t>
-  </si>
-  <si>
     <t>Impostos</t>
   </si>
   <si>
-    <t>Estacionamento - Visita cliente</t>
-  </si>
-  <si>
-    <t>Combustivel - Visita cliente</t>
-  </si>
-  <si>
-    <t>Depreciação</t>
-  </si>
-  <si>
-    <t>20% ao ano segundo Receita Federal</t>
-  </si>
-  <si>
-    <t>0,2 (20%) * 0,18 (2 meses)</t>
-  </si>
-  <si>
     <t>VT - 6% sobre salário</t>
   </si>
   <si>
@@ -184,19 +163,7 @@
     <t>Outros</t>
   </si>
   <si>
-    <t>Aluguel Sala Comercial / mês</t>
-  </si>
-  <si>
-    <t>segundo aplicativo VivaReal</t>
-  </si>
-  <si>
-    <t>Água, Luz, Telefone / mês</t>
-  </si>
-  <si>
     <t>VR - Alimentação</t>
-  </si>
-  <si>
-    <t>6 funcionarios * 2 meses</t>
   </si>
   <si>
     <t>Carta Projeto</t>
@@ -918,9 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1030,7 +997,7 @@
     </row>
     <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B7" s="18">
         <v>43682</v>
@@ -1051,7 +1018,7 @@
     </row>
     <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18">
         <v>43689</v>
@@ -1072,7 +1039,7 @@
     </row>
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B9" s="18">
         <v>43689</v>
@@ -1093,7 +1060,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B10" s="28">
         <v>43689</v>
@@ -1254,7 +1221,7 @@
     </row>
     <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B20" s="18">
         <v>43710</v>
@@ -1275,7 +1242,7 @@
     </row>
     <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B21" s="18">
         <v>43717</v>
@@ -1296,7 +1263,7 @@
     </row>
     <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B22" s="18">
         <v>43724</v>
@@ -1317,7 +1284,7 @@
     </row>
     <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B23" s="18">
         <v>43731</v>
@@ -1338,7 +1305,7 @@
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B24" s="18">
         <v>43731</v>
@@ -1359,7 +1326,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B25" s="28">
         <v>43738</v>
@@ -1570,7 +1537,7 @@
         <v>43822</v>
       </c>
       <c r="D37" s="19">
-        <f t="shared" ref="D36:D37" si="3">E37*F37</f>
+        <f t="shared" ref="D37" si="3">E37*F37</f>
         <v>672</v>
       </c>
       <c r="E37" s="20">
@@ -1658,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1640,7 @@
     <col min="5" max="5" width="14.5703125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
@@ -1690,9 +1657,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>31</v>
@@ -1709,173 +1676,54 @@
         <v>1401.6000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="65">
-        <v>2500</v>
+        <f>SUM(Salários!E3:E7)</f>
+        <v>1915.1999999999998</v>
       </c>
       <c r="D3" s="67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="60">
-        <f t="shared" ref="E3:E6" si="0">C3*D3</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="65">
-        <f>E3</f>
-        <v>5000</v>
-      </c>
-      <c r="D4" s="67">
-        <f>0.2*0.18</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E4" s="60">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="65">
-        <v>20</v>
-      </c>
-      <c r="D5" s="67">
-        <v>2</v>
-      </c>
-      <c r="E5" s="60">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="65">
-        <v>10</v>
-      </c>
-      <c r="D6" s="67">
-        <v>2</v>
-      </c>
-      <c r="E6" s="60">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="65">
-        <f>SUM(Salários!E3:E7)*2</f>
-        <v>3830.3999999999996</v>
-      </c>
-      <c r="D7" s="67">
-        <v>1</v>
-      </c>
-      <c r="E7" s="60">
-        <f>C7*D7</f>
-        <v>3830.3999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="65">
-        <v>4620</v>
-      </c>
-      <c r="D8" s="67">
-        <v>2</v>
-      </c>
-      <c r="E8" s="60">
-        <f>C8*D8</f>
-        <v>9240</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="65">
-        <v>700</v>
-      </c>
-      <c r="D9" s="67">
-        <v>2</v>
-      </c>
-      <c r="E9" s="60">
-        <f>C9*D9</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="66">
+        <f>C3*D3</f>
+        <v>7660.7999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="66">
         <v>440</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D4" s="68">
         <v>4</v>
       </c>
-      <c r="E10" s="62">
-        <f>C10*D10</f>
+      <c r="E4" s="62">
+        <f>C4*D4</f>
         <v>1760</v>
       </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="72">
-        <f>SUM(E2:E10)</f>
-        <v>22872</v>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72">
+        <f>SUM(E2:E4)</f>
+        <v>10822.4</v>
       </c>
     </row>
   </sheetData>
@@ -1902,21 +1750,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" s="50">
         <v>80</v>
@@ -1926,12 +1774,12 @@
         <v>13440</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="50">
         <v>40</v>
@@ -1947,7 +1795,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B4" s="50">
         <v>42</v>
@@ -1963,7 +1811,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B5" s="50">
         <v>38</v>
@@ -1979,7 +1827,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" s="50">
         <v>35</v>
@@ -1995,7 +1843,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7" s="53">
         <v>35</v>
